--- a/Team-Data/2014-15/2-23-2014-15.xlsx
+++ b/Team-Data/2014-15/2-23-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>6.1</v>
       </c>
       <c r="AD2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE2" t="n">
         <v>1</v>
@@ -756,7 +823,7 @@
         <v>2</v>
       </c>
       <c r="AH2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI2" t="n">
         <v>12</v>
@@ -780,10 +847,10 @@
         <v>13</v>
       </c>
       <c r="AP2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR2" t="n">
         <v>30</v>
@@ -804,7 +871,7 @@
         <v>6</v>
       </c>
       <c r="AX2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY2" t="n">
         <v>15</v>
@@ -813,7 +880,7 @@
         <v>1</v>
       </c>
       <c r="BA2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB2" t="n">
         <v>7</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-23-2014-15</t>
+          <t>2015-02-23</t>
         </is>
       </c>
     </row>
@@ -848,22 +915,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3" t="n">
         <v>33</v>
       </c>
       <c r="G3" t="n">
-        <v>0.389</v>
+        <v>0.377</v>
       </c>
       <c r="H3" t="n">
         <v>48.6</v>
       </c>
       <c r="I3" t="n">
-        <v>39.1</v>
+        <v>39.2</v>
       </c>
       <c r="J3" t="n">
         <v>88.09999999999999</v>
@@ -872,25 +939,25 @@
         <v>0.444</v>
       </c>
       <c r="L3" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="M3" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="N3" t="n">
-        <v>0.328</v>
+        <v>0.324</v>
       </c>
       <c r="O3" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="P3" t="n">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.75</v>
+        <v>0.749</v>
       </c>
       <c r="R3" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="S3" t="n">
         <v>32.7</v>
@@ -905,28 +972,28 @@
         <v>14.3</v>
       </c>
       <c r="W3" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="X3" t="n">
         <v>3.9</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AA3" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.3</v>
+        <v>101</v>
       </c>
       <c r="AC3" t="n">
-        <v>-1.6</v>
+        <v>-1.7</v>
       </c>
       <c r="AD3" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AE3" t="n">
         <v>22</v>
@@ -947,16 +1014,16 @@
         <v>1</v>
       </c>
       <c r="AK3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM3" t="n">
         <v>12</v>
       </c>
       <c r="AN3" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AO3" t="n">
         <v>28</v>
@@ -971,13 +1038,13 @@
         <v>14</v>
       </c>
       <c r="AS3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT3" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AU3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV3" t="n">
         <v>14</v>
@@ -989,16 +1056,16 @@
         <v>29</v>
       </c>
       <c r="AY3" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AZ3" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="BA3" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BB3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC3" t="n">
         <v>19</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-23-2014-15</t>
+          <t>2015-02-23</t>
         </is>
       </c>
     </row>
@@ -1030,28 +1097,28 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4" t="n">
         <v>31</v>
       </c>
       <c r="G4" t="n">
-        <v>0.426</v>
+        <v>0.415</v>
       </c>
       <c r="H4" t="n">
         <v>48.6</v>
       </c>
       <c r="I4" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="J4" t="n">
-        <v>81.59999999999999</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>0.448</v>
+        <v>0.447</v>
       </c>
       <c r="L4" t="n">
         <v>6.6</v>
@@ -1060,7 +1127,7 @@
         <v>20.5</v>
       </c>
       <c r="N4" t="n">
-        <v>0.321</v>
+        <v>0.324</v>
       </c>
       <c r="O4" t="n">
         <v>16.4</v>
@@ -1069,28 +1136,28 @@
         <v>22</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.746</v>
+        <v>0.744</v>
       </c>
       <c r="R4" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="S4" t="n">
-        <v>32.2</v>
+        <v>32</v>
       </c>
       <c r="T4" t="n">
-        <v>42.2</v>
+        <v>41.9</v>
       </c>
       <c r="U4" t="n">
         <v>20.7</v>
       </c>
       <c r="V4" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W4" t="n">
         <v>7</v>
       </c>
       <c r="X4" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Y4" t="n">
         <v>4.5</v>
@@ -1102,16 +1169,16 @@
         <v>19.9</v>
       </c>
       <c r="AB4" t="n">
-        <v>96.09999999999999</v>
+        <v>95.8</v>
       </c>
       <c r="AC4" t="n">
-        <v>-3.2</v>
+        <v>-3.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AE4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AF4" t="n">
         <v>17</v>
@@ -1141,7 +1208,7 @@
         <v>27</v>
       </c>
       <c r="AO4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP4" t="n">
         <v>19</v>
@@ -1156,13 +1223,13 @@
         <v>16</v>
       </c>
       <c r="AT4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AU4" t="n">
         <v>22</v>
       </c>
       <c r="AV4" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AW4" t="n">
         <v>24</v>
@@ -1171,19 +1238,19 @@
         <v>23</v>
       </c>
       <c r="AY4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ4" t="n">
         <v>15</v>
       </c>
       <c r="BA4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB4" t="n">
         <v>24</v>
       </c>
       <c r="BC4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-23-2014-15</t>
+          <t>2015-02-23</t>
         </is>
       </c>
     </row>
@@ -1290,10 +1357,10 @@
         <v>-2.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AE5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF5" t="n">
         <v>19</v>
@@ -1335,10 +1402,10 @@
         <v>23</v>
       </c>
       <c r="AS5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU5" t="n">
         <v>25</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-23-2014-15</t>
+          <t>2015-02-23</t>
         </is>
       </c>
     </row>
@@ -1394,61 +1461,61 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E6" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F6" t="n">
         <v>21</v>
       </c>
       <c r="G6" t="n">
-        <v>0.632</v>
+        <v>0.625</v>
       </c>
       <c r="H6" t="n">
         <v>48.6</v>
       </c>
       <c r="I6" t="n">
-        <v>36.9</v>
+        <v>37.1</v>
       </c>
       <c r="J6" t="n">
-        <v>83.2</v>
+        <v>83.3</v>
       </c>
       <c r="K6" t="n">
-        <v>0.443</v>
+        <v>0.445</v>
       </c>
       <c r="L6" t="n">
         <v>7.7</v>
       </c>
       <c r="M6" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="N6" t="n">
-        <v>0.36</v>
+        <v>0.361</v>
       </c>
       <c r="O6" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="P6" t="n">
-        <v>25.9</v>
+        <v>25.8</v>
       </c>
       <c r="Q6" t="n">
         <v>0.787</v>
       </c>
       <c r="R6" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="S6" t="n">
-        <v>33.7</v>
+        <v>33.5</v>
       </c>
       <c r="T6" t="n">
-        <v>45.8</v>
+        <v>45.6</v>
       </c>
       <c r="U6" t="n">
         <v>21.6</v>
       </c>
       <c r="V6" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="W6" t="n">
         <v>6.3</v>
@@ -1466,16 +1533,16 @@
         <v>21.8</v>
       </c>
       <c r="AB6" t="n">
-        <v>101.9</v>
+        <v>102.1</v>
       </c>
       <c r="AC6" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="AD6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF6" t="n">
         <v>9</v>
@@ -1487,22 +1554,22 @@
         <v>5</v>
       </c>
       <c r="AI6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ6" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AK6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM6" t="n">
         <v>16</v>
       </c>
       <c r="AN6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO6" t="n">
         <v>2</v>
@@ -1514,13 +1581,13 @@
         <v>2</v>
       </c>
       <c r="AR6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS6" t="n">
         <v>8</v>
       </c>
       <c r="AT6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU6" t="n">
         <v>14</v>
@@ -1544,7 +1611,7 @@
         <v>3</v>
       </c>
       <c r="BB6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC6" t="n">
         <v>11</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-23-2014-15</t>
+          <t>2015-02-23</t>
         </is>
       </c>
     </row>
@@ -1654,19 +1721,19 @@
         <v>3.7</v>
       </c>
       <c r="AD7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI7" t="n">
         <v>15</v>
@@ -1675,7 +1742,7 @@
         <v>22</v>
       </c>
       <c r="AK7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL7" t="n">
         <v>8</v>
@@ -1684,13 +1751,13 @@
         <v>7</v>
       </c>
       <c r="AN7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AQ7" t="n">
         <v>17</v>
@@ -1699,7 +1766,7 @@
         <v>11</v>
       </c>
       <c r="AS7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT7" t="n">
         <v>18</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-23-2014-15</t>
+          <t>2015-02-23</t>
         </is>
       </c>
     </row>
@@ -1758,25 +1825,25 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E8" t="n">
         <v>38</v>
       </c>
       <c r="F8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G8" t="n">
-        <v>0.667</v>
+        <v>0.655</v>
       </c>
       <c r="H8" t="n">
         <v>48.5</v>
       </c>
       <c r="I8" t="n">
-        <v>39.9</v>
+        <v>39.8</v>
       </c>
       <c r="J8" t="n">
-        <v>86.2</v>
+        <v>86</v>
       </c>
       <c r="K8" t="n">
         <v>0.463</v>
@@ -1785,10 +1852,10 @@
         <v>9.6</v>
       </c>
       <c r="M8" t="n">
-        <v>26.9</v>
+        <v>26.8</v>
       </c>
       <c r="N8" t="n">
-        <v>0.356</v>
+        <v>0.357</v>
       </c>
       <c r="O8" t="n">
         <v>16.6</v>
@@ -1797,28 +1864,28 @@
         <v>21.9</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.758</v>
+        <v>0.759</v>
       </c>
       <c r="R8" t="n">
         <v>10.8</v>
       </c>
       <c r="S8" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="T8" t="n">
-        <v>42.7</v>
+        <v>42.5</v>
       </c>
       <c r="U8" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="V8" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="W8" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X8" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y8" t="n">
         <v>3.6</v>
@@ -1830,10 +1897,10 @@
         <v>21.8</v>
       </c>
       <c r="AB8" t="n">
-        <v>106</v>
+        <v>105.9</v>
       </c>
       <c r="AC8" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -1842,13 +1909,13 @@
         <v>4</v>
       </c>
       <c r="AF8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AH8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI8" t="n">
         <v>3</v>
@@ -1857,7 +1924,7 @@
         <v>6</v>
       </c>
       <c r="AK8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL8" t="n">
         <v>6</v>
@@ -1866,19 +1933,19 @@
         <v>4</v>
       </c>
       <c r="AN8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP8" t="n">
         <v>20</v>
       </c>
       <c r="AQ8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS8" t="n">
         <v>18</v>
@@ -1896,7 +1963,7 @@
         <v>9</v>
       </c>
       <c r="AX8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY8" t="n">
         <v>3</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-23-2014-15</t>
+          <t>2015-02-23</t>
         </is>
       </c>
     </row>
@@ -1940,58 +2007,58 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E9" t="n">
         <v>20</v>
       </c>
       <c r="F9" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G9" t="n">
-        <v>0.357</v>
+        <v>0.364</v>
       </c>
       <c r="H9" t="n">
         <v>48.4</v>
       </c>
       <c r="I9" t="n">
-        <v>37.1</v>
+        <v>37.3</v>
       </c>
       <c r="J9" t="n">
-        <v>86.59999999999999</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>0.429</v>
+        <v>0.431</v>
       </c>
       <c r="L9" t="n">
         <v>7.4</v>
       </c>
       <c r="M9" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="N9" t="n">
-        <v>0.313</v>
+        <v>0.314</v>
       </c>
       <c r="O9" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="P9" t="n">
         <v>24.7</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.738</v>
+        <v>0.74</v>
       </c>
       <c r="R9" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="S9" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
       <c r="T9" t="n">
-        <v>45</v>
+        <v>44.9</v>
       </c>
       <c r="U9" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="V9" t="n">
         <v>14.1</v>
@@ -2003,7 +2070,7 @@
         <v>4.8</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Z9" t="n">
         <v>23</v>
@@ -2012,25 +2079,25 @@
         <v>20.8</v>
       </c>
       <c r="AB9" t="n">
-        <v>99.90000000000001</v>
+        <v>100.2</v>
       </c>
       <c r="AC9" t="n">
-        <v>-4.3</v>
+        <v>-3.9</v>
       </c>
       <c r="AD9" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AE9" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF9" t="n">
         <v>24</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>25</v>
       </c>
       <c r="AG9" t="n">
         <v>24</v>
       </c>
       <c r="AH9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI9" t="n">
         <v>18</v>
@@ -2048,49 +2115,49 @@
         <v>13</v>
       </c>
       <c r="AN9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO9" t="n">
         <v>7</v>
       </c>
       <c r="AP9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ9" t="n">
         <v>23</v>
       </c>
       <c r="AR9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT9" t="n">
         <v>7</v>
       </c>
       <c r="AU9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV9" t="n">
         <v>11</v>
       </c>
       <c r="AW9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX9" t="n">
         <v>14</v>
       </c>
       <c r="AY9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ9" t="n">
         <v>30</v>
       </c>
       <c r="BA9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC9" t="n">
         <v>24</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-23-2014-15</t>
+          <t>2015-02-23</t>
         </is>
       </c>
     </row>
@@ -2200,10 +2267,10 @@
         <v>-1</v>
       </c>
       <c r="AD10" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF10" t="n">
         <v>20</v>
@@ -2233,7 +2300,7 @@
         <v>19</v>
       </c>
       <c r="AO10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP10" t="n">
         <v>14</v>
@@ -2263,7 +2330,7 @@
         <v>21</v>
       </c>
       <c r="AY10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ10" t="n">
         <v>7</v>
@@ -2272,7 +2339,7 @@
         <v>21</v>
       </c>
       <c r="BB10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BC10" t="n">
         <v>17</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-23-2014-15</t>
+          <t>2015-02-23</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>10.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AE11" t="n">
         <v>2</v>
@@ -2421,7 +2488,7 @@
         <v>24</v>
       </c>
       <c r="AQ11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR11" t="n">
         <v>22</v>
@@ -2442,7 +2509,7 @@
         <v>4</v>
       </c>
       <c r="AX11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY11" t="n">
         <v>2</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-23-2014-15</t>
+          <t>2015-02-23</t>
         </is>
       </c>
     </row>
@@ -2501,40 +2568,40 @@
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="J12" t="n">
-        <v>84.2</v>
+        <v>83.8</v>
       </c>
       <c r="K12" t="n">
-        <v>0.438</v>
+        <v>0.439</v>
       </c>
       <c r="L12" t="n">
         <v>11.7</v>
       </c>
       <c r="M12" t="n">
-        <v>33.8</v>
+        <v>33.6</v>
       </c>
       <c r="N12" t="n">
-        <v>0.346</v>
+        <v>0.348</v>
       </c>
       <c r="O12" t="n">
-        <v>17.6</v>
+        <v>17.8</v>
       </c>
       <c r="P12" t="n">
-        <v>24.5</v>
+        <v>24.8</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.717</v>
+        <v>0.716</v>
       </c>
       <c r="R12" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="S12" t="n">
         <v>31.5</v>
       </c>
       <c r="T12" t="n">
-        <v>43.8</v>
+        <v>43.6</v>
       </c>
       <c r="U12" t="n">
         <v>21.7</v>
@@ -2543,7 +2610,7 @@
         <v>17.1</v>
       </c>
       <c r="W12" t="n">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="X12" t="n">
         <v>4.7</v>
@@ -2552,19 +2619,19 @@
         <v>5.4</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.3</v>
+        <v>20.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>103.1</v>
+        <v>103</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AE12" t="n">
         <v>5</v>
@@ -2579,10 +2646,10 @@
         <v>15</v>
       </c>
       <c r="AI12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK12" t="n">
         <v>22</v>
@@ -2594,25 +2661,25 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AO12" t="n">
         <v>11</v>
       </c>
       <c r="AP12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ12" t="n">
         <v>28</v>
       </c>
       <c r="AR12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AU12" t="n">
         <v>13</v>
@@ -2621,10 +2688,10 @@
         <v>29</v>
       </c>
       <c r="AW12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY12" t="n">
         <v>24</v>
@@ -2633,7 +2700,7 @@
         <v>29</v>
       </c>
       <c r="BA12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BB12" t="n">
         <v>6</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-23-2014-15</t>
+          <t>2015-02-23</t>
         </is>
       </c>
     </row>
@@ -2746,10 +2813,10 @@
         <v>-1</v>
       </c>
       <c r="AD13" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF13" t="n">
         <v>20</v>
@@ -2758,16 +2825,16 @@
         <v>19</v>
       </c>
       <c r="AH13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI13" t="n">
         <v>24</v>
       </c>
       <c r="AJ13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL13" t="n">
         <v>21</v>
@@ -2779,7 +2846,7 @@
         <v>23</v>
       </c>
       <c r="AO13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP13" t="n">
         <v>23</v>
@@ -2788,7 +2855,7 @@
         <v>12</v>
       </c>
       <c r="AR13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AS13" t="n">
         <v>4</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-23-2014-15</t>
+          <t>2015-02-23</t>
         </is>
       </c>
     </row>
@@ -2850,25 +2917,25 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E14" t="n">
         <v>37</v>
       </c>
       <c r="F14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G14" t="n">
-        <v>0.649</v>
+        <v>0.661</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
       </c>
       <c r="I14" t="n">
-        <v>39.3</v>
+        <v>39.4</v>
       </c>
       <c r="J14" t="n">
-        <v>83.09999999999999</v>
+        <v>83.2</v>
       </c>
       <c r="K14" t="n">
         <v>0.473</v>
@@ -2880,13 +2947,13 @@
         <v>26.2</v>
       </c>
       <c r="N14" t="n">
-        <v>0.371</v>
+        <v>0.372</v>
       </c>
       <c r="O14" t="n">
-        <v>18.6</v>
+        <v>18.8</v>
       </c>
       <c r="P14" t="n">
-        <v>25.5</v>
+        <v>25.7</v>
       </c>
       <c r="Q14" t="n">
         <v>0.73</v>
@@ -2895,49 +2962,49 @@
         <v>9.5</v>
       </c>
       <c r="S14" t="n">
-        <v>32.4</v>
+        <v>32.3</v>
       </c>
       <c r="T14" t="n">
-        <v>41.8</v>
+        <v>41.9</v>
       </c>
       <c r="U14" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="V14" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="W14" t="n">
         <v>7.9</v>
       </c>
       <c r="X14" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y14" t="n">
         <v>3.1</v>
       </c>
       <c r="Z14" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AA14" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="AB14" t="n">
-        <v>106.9</v>
+        <v>107.3</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE14" t="n">
         <v>5</v>
       </c>
       <c r="AF14" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AG14" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AH14" t="n">
         <v>27</v>
@@ -2988,7 +3055,7 @@
         <v>12</v>
       </c>
       <c r="AX14" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AY14" t="n">
         <v>1</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-23-2014-15</t>
+          <t>2015-02-23</t>
         </is>
       </c>
     </row>
@@ -3032,58 +3099,58 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E15" t="n">
         <v>14</v>
       </c>
       <c r="F15" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G15" t="n">
-        <v>0.259</v>
+        <v>0.255</v>
       </c>
       <c r="H15" t="n">
         <v>48.7</v>
       </c>
       <c r="I15" t="n">
-        <v>37.5</v>
+        <v>37.3</v>
       </c>
       <c r="J15" t="n">
-        <v>86.3</v>
+        <v>86.2</v>
       </c>
       <c r="K15" t="n">
-        <v>0.435</v>
+        <v>0.433</v>
       </c>
       <c r="L15" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="M15" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="N15" t="n">
         <v>0.346</v>
       </c>
       <c r="O15" t="n">
-        <v>17.9</v>
+        <v>18.1</v>
       </c>
       <c r="P15" t="n">
-        <v>24.2</v>
+        <v>24.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.74</v>
+        <v>0.742</v>
       </c>
       <c r="R15" t="n">
         <v>11.8</v>
       </c>
       <c r="S15" t="n">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="T15" t="n">
-        <v>43.9</v>
+        <v>43.7</v>
       </c>
       <c r="U15" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="V15" t="n">
         <v>13.1</v>
@@ -3092,25 +3159,25 @@
         <v>7.3</v>
       </c>
       <c r="X15" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="Y15" t="n">
         <v>4.5</v>
       </c>
-      <c r="Y15" t="n">
-        <v>4.6</v>
-      </c>
       <c r="Z15" t="n">
-        <v>21</v>
+        <v>21.2</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.9</v>
+        <v>20.1</v>
       </c>
       <c r="AB15" t="n">
-        <v>99.7</v>
+        <v>99.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.7</v>
+        <v>-6.9</v>
       </c>
       <c r="AD15" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3125,13 +3192,13 @@
         <v>3</v>
       </c>
       <c r="AI15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ15" t="n">
         <v>5</v>
       </c>
       <c r="AK15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL15" t="n">
         <v>24</v>
@@ -3140,16 +3207,16 @@
         <v>22</v>
       </c>
       <c r="AN15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO15" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AP15" t="n">
         <v>8</v>
       </c>
       <c r="AQ15" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AR15" t="n">
         <v>9</v>
@@ -3158,10 +3225,10 @@
         <v>17</v>
       </c>
       <c r="AT15" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AU15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV15" t="n">
         <v>6</v>
@@ -3173,16 +3240,16 @@
         <v>19</v>
       </c>
       <c r="AY15" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AZ15" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>17</v>
+      </c>
+      <c r="BB15" t="n">
         <v>18</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>20</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>17</v>
       </c>
       <c r="BC15" t="n">
         <v>27</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-23-2014-15</t>
+          <t>2015-02-23</t>
         </is>
       </c>
     </row>
@@ -3214,28 +3281,28 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E16" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F16" t="n">
         <v>14</v>
       </c>
       <c r="G16" t="n">
-        <v>0.745</v>
+        <v>0.741</v>
       </c>
       <c r="H16" t="n">
         <v>48.8</v>
       </c>
       <c r="I16" t="n">
-        <v>38.3</v>
+        <v>38.4</v>
       </c>
       <c r="J16" t="n">
         <v>83.40000000000001</v>
       </c>
       <c r="K16" t="n">
-        <v>0.46</v>
+        <v>0.461</v>
       </c>
       <c r="L16" t="n">
         <v>5.3</v>
@@ -3250,25 +3317,25 @@
         <v>18.4</v>
       </c>
       <c r="P16" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.778</v>
+        <v>0.779</v>
       </c>
       <c r="R16" t="n">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="S16" t="n">
         <v>32.6</v>
       </c>
       <c r="T16" t="n">
-        <v>43.1</v>
+        <v>43.2</v>
       </c>
       <c r="U16" t="n">
         <v>22</v>
       </c>
       <c r="V16" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="W16" t="n">
         <v>8.5</v>
@@ -3277,22 +3344,22 @@
         <v>4.4</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Z16" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="AA16" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB16" t="n">
-        <v>100.3</v>
+        <v>100.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="AD16" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3334,7 +3401,7 @@
         <v>5</v>
       </c>
       <c r="AR16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AS16" t="n">
         <v>12</v>
@@ -3358,7 +3425,7 @@
         <v>19</v>
       </c>
       <c r="AZ16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA16" t="n">
         <v>12</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-23-2014-15</t>
+          <t>2015-02-23</t>
         </is>
       </c>
     </row>
@@ -3396,64 +3463,64 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F17" t="n">
         <v>31</v>
       </c>
       <c r="G17" t="n">
-        <v>0.436</v>
+        <v>0.426</v>
       </c>
       <c r="H17" t="n">
         <v>48</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5</v>
+        <v>34.3</v>
       </c>
       <c r="J17" t="n">
-        <v>75.59999999999999</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="K17" t="n">
-        <v>0.457</v>
+        <v>0.455</v>
       </c>
       <c r="L17" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="M17" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="N17" t="n">
-        <v>0.349</v>
+        <v>0.346</v>
       </c>
       <c r="O17" t="n">
         <v>17.5</v>
       </c>
       <c r="P17" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.741</v>
+        <v>0.742</v>
       </c>
       <c r="R17" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="S17" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="T17" t="n">
-        <v>38.3</v>
+        <v>38.2</v>
       </c>
       <c r="U17" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="V17" t="n">
         <v>14.8</v>
       </c>
       <c r="W17" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="X17" t="n">
         <v>4.2</v>
@@ -3468,13 +3535,13 @@
         <v>20.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>93.5</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="AC17" t="n">
-        <v>-3.3</v>
+        <v>-3.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AE17" t="n">
         <v>17</v>
@@ -3495,16 +3562,16 @@
         <v>30</v>
       </c>
       <c r="AK17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM17" t="n">
         <v>21</v>
       </c>
       <c r="AN17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO17" t="n">
         <v>12</v>
@@ -3513,7 +3580,7 @@
         <v>13</v>
       </c>
       <c r="AQ17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR17" t="n">
         <v>29</v>
@@ -3525,7 +3592,7 @@
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AV17" t="n">
         <v>20</v>
@@ -3540,7 +3607,7 @@
         <v>8</v>
       </c>
       <c r="AZ17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA17" t="n">
         <v>13</v>
@@ -3549,7 +3616,7 @@
         <v>28</v>
       </c>
       <c r="BC17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-23-2014-15</t>
+          <t>2015-02-23</t>
         </is>
       </c>
     </row>
@@ -3578,46 +3645,46 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E18" t="n">
         <v>31</v>
       </c>
       <c r="F18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G18" t="n">
-        <v>0.554</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="H18" t="n">
         <v>48.5</v>
       </c>
       <c r="I18" t="n">
-        <v>37.6</v>
+        <v>37.8</v>
       </c>
       <c r="J18" t="n">
-        <v>81.40000000000001</v>
+        <v>81.3</v>
       </c>
       <c r="K18" t="n">
-        <v>0.462</v>
+        <v>0.465</v>
       </c>
       <c r="L18" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="M18" t="n">
         <v>18.8</v>
       </c>
       <c r="N18" t="n">
-        <v>0.373</v>
+        <v>0.376</v>
       </c>
       <c r="O18" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="P18" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.775</v>
+        <v>0.777</v>
       </c>
       <c r="R18" t="n">
         <v>10</v>
@@ -3629,10 +3696,10 @@
         <v>41.3</v>
       </c>
       <c r="U18" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="V18" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="W18" t="n">
         <v>9.5</v>
@@ -3641,7 +3708,7 @@
         <v>4.8</v>
       </c>
       <c r="Y18" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z18" t="n">
         <v>22.3</v>
@@ -3650,13 +3717,13 @@
         <v>19.7</v>
       </c>
       <c r="AB18" t="n">
-        <v>98.3</v>
+        <v>98.8</v>
       </c>
       <c r="AC18" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="AD18" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AE18" t="n">
         <v>13</v>
@@ -3668,7 +3735,7 @@
         <v>13</v>
       </c>
       <c r="AH18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI18" t="n">
         <v>14</v>
@@ -3677,10 +3744,10 @@
         <v>25</v>
       </c>
       <c r="AK18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM18" t="n">
         <v>25</v>
@@ -3689,19 +3756,19 @@
         <v>3</v>
       </c>
       <c r="AO18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP18" t="n">
         <v>26</v>
       </c>
       <c r="AQ18" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AR18" t="n">
         <v>25</v>
       </c>
       <c r="AS18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT18" t="n">
         <v>26</v>
@@ -3716,7 +3783,7 @@
         <v>3</v>
       </c>
       <c r="AX18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY18" t="n">
         <v>12</v>
@@ -3725,10 +3792,10 @@
         <v>28</v>
       </c>
       <c r="BA18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BC18" t="n">
         <v>13</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-23-2014-15</t>
+          <t>2015-02-23</t>
         </is>
       </c>
     </row>
@@ -3760,61 +3827,61 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E19" t="n">
         <v>12</v>
       </c>
       <c r="F19" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G19" t="n">
-        <v>0.218</v>
+        <v>0.222</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
       </c>
       <c r="I19" t="n">
-        <v>36.8</v>
+        <v>36.9</v>
       </c>
       <c r="J19" t="n">
-        <v>84.5</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="K19" t="n">
-        <v>0.435</v>
+        <v>0.437</v>
       </c>
       <c r="L19" t="n">
         <v>5</v>
       </c>
       <c r="M19" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="N19" t="n">
-        <v>0.336</v>
+        <v>0.337</v>
       </c>
       <c r="O19" t="n">
-        <v>19.3</v>
+        <v>19</v>
       </c>
       <c r="P19" t="n">
-        <v>25.4</v>
+        <v>25.1</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.761</v>
+        <v>0.757</v>
       </c>
       <c r="R19" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="S19" t="n">
-        <v>29.3</v>
+        <v>29.1</v>
       </c>
       <c r="T19" t="n">
-        <v>41.6</v>
+        <v>41.3</v>
       </c>
       <c r="U19" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="V19" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="W19" t="n">
         <v>8.4</v>
@@ -3826,19 +3893,19 @@
         <v>5.9</v>
       </c>
       <c r="Z19" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AA19" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AB19" t="n">
-        <v>97.90000000000001</v>
+        <v>97.8</v>
       </c>
       <c r="AC19" t="n">
         <v>-8.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AE19" t="n">
         <v>28</v>
@@ -3853,13 +3920,13 @@
         <v>22</v>
       </c>
       <c r="AI19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ19" t="n">
         <v>11</v>
       </c>
       <c r="AK19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL19" t="n">
         <v>30</v>
@@ -3874,13 +3941,13 @@
         <v>4</v>
       </c>
       <c r="AP19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS19" t="n">
         <v>29</v>
@@ -3901,10 +3968,10 @@
         <v>26</v>
       </c>
       <c r="AY19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AZ19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA19" t="n">
         <v>6</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-23-2014-15</t>
+          <t>2015-02-23</t>
         </is>
       </c>
     </row>
@@ -3960,67 +4027,67 @@
         <v>37.8</v>
       </c>
       <c r="J20" t="n">
-        <v>83.2</v>
+        <v>83.7</v>
       </c>
       <c r="K20" t="n">
-        <v>0.454</v>
+        <v>0.452</v>
       </c>
       <c r="L20" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="M20" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="N20" t="n">
-        <v>0.357</v>
+        <v>0.353</v>
       </c>
       <c r="O20" t="n">
-        <v>17.2</v>
+        <v>17.3</v>
       </c>
       <c r="P20" t="n">
-        <v>22.4</v>
+        <v>22.7</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.769</v>
+        <v>0.764</v>
       </c>
       <c r="R20" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="S20" t="n">
         <v>31.8</v>
       </c>
       <c r="T20" t="n">
-        <v>43.6</v>
+        <v>43.9</v>
       </c>
       <c r="U20" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="V20" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="W20" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="X20" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="Z20" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.7</v>
+        <v>18.9</v>
       </c>
       <c r="AB20" t="n">
-        <v>99.59999999999999</v>
+        <v>99.7</v>
       </c>
       <c r="AC20" t="n">
-        <v>-0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AD20" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AE20" t="n">
         <v>16</v>
@@ -4029,19 +4096,19 @@
         <v>15</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI20" t="n">
         <v>13</v>
       </c>
       <c r="AJ20" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AK20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL20" t="n">
         <v>23</v>
@@ -4050,40 +4117,40 @@
         <v>24</v>
       </c>
       <c r="AN20" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AO20" t="n">
         <v>14</v>
       </c>
       <c r="AP20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AT20" t="n">
         <v>10</v>
       </c>
-      <c r="AR20" t="n">
-        <v>7</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>20</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>15</v>
-      </c>
       <c r="AU20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AV20" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AW20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AX20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY20" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AZ20" t="n">
         <v>6</v>
@@ -4092,7 +4159,7 @@
         <v>27</v>
       </c>
       <c r="BB20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC20" t="n">
         <v>16</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-23-2014-15</t>
+          <t>2015-02-23</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-8.199999999999999</v>
       </c>
       <c r="AD21" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AE21" t="n">
         <v>30</v>
@@ -4223,7 +4290,7 @@
         <v>20</v>
       </c>
       <c r="AK21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL21" t="n">
         <v>18</v>
@@ -4232,7 +4299,7 @@
         <v>20</v>
       </c>
       <c r="AN21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO21" t="n">
         <v>30</v>
@@ -4244,7 +4311,7 @@
         <v>11</v>
       </c>
       <c r="AR21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS21" t="n">
         <v>30</v>
@@ -4256,13 +4323,13 @@
         <v>15</v>
       </c>
       <c r="AV21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY21" t="n">
         <v>6</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-23-2014-15</t>
+          <t>2015-02-23</t>
         </is>
       </c>
     </row>
@@ -4384,22 +4451,22 @@
         <v>2.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE22" t="n">
         <v>13</v>
       </c>
       <c r="AF22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ22" t="n">
         <v>9</v>
@@ -4414,10 +4481,10 @@
         <v>15</v>
       </c>
       <c r="AN22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP22" t="n">
         <v>11</v>
@@ -4426,7 +4493,7 @@
         <v>16</v>
       </c>
       <c r="AR22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AS22" t="n">
         <v>2</v>
@@ -4438,7 +4505,7 @@
         <v>24</v>
       </c>
       <c r="AV22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW22" t="n">
         <v>21</v>
@@ -4447,16 +4514,16 @@
         <v>4</v>
       </c>
       <c r="AY22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ22" t="n">
         <v>27</v>
       </c>
       <c r="BA22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC22" t="n">
         <v>12</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-23-2014-15</t>
+          <t>2015-02-23</t>
         </is>
       </c>
     </row>
@@ -4488,37 +4555,37 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E23" t="n">
         <v>19</v>
       </c>
       <c r="F23" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G23" t="n">
-        <v>0.333</v>
+        <v>0.328</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>37.5</v>
+        <v>37.4</v>
       </c>
       <c r="J23" t="n">
         <v>81.7</v>
       </c>
       <c r="K23" t="n">
-        <v>0.459</v>
+        <v>0.457</v>
       </c>
       <c r="L23" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M23" t="n">
-        <v>19.5</v>
+        <v>19.3</v>
       </c>
       <c r="N23" t="n">
-        <v>0.353</v>
+        <v>0.354</v>
       </c>
       <c r="O23" t="n">
         <v>14.2</v>
@@ -4527,31 +4594,31 @@
         <v>19.4</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.733</v>
+        <v>0.734</v>
       </c>
       <c r="R23" t="n">
-        <v>8.9</v>
+        <v>9.1</v>
       </c>
       <c r="S23" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="T23" t="n">
-        <v>40.5</v>
+        <v>40.8</v>
       </c>
       <c r="U23" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V23" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W23" t="n">
         <v>7.5</v>
       </c>
       <c r="X23" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="Z23" t="n">
         <v>21.2</v>
@@ -4560,10 +4627,10 @@
         <v>18.3</v>
       </c>
       <c r="AB23" t="n">
-        <v>96</v>
+        <v>95.8</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.3</v>
+        <v>-5.5</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -4581,13 +4648,13 @@
         <v>26</v>
       </c>
       <c r="AI23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ23" t="n">
         <v>23</v>
       </c>
       <c r="AK23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL23" t="n">
         <v>22</v>
@@ -4596,7 +4663,7 @@
         <v>23</v>
       </c>
       <c r="AN23" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO23" t="n">
         <v>29</v>
@@ -4611,7 +4678,7 @@
         <v>28</v>
       </c>
       <c r="AS23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT23" t="n">
         <v>28</v>
@@ -4620,7 +4687,7 @@
         <v>26</v>
       </c>
       <c r="AV23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW23" t="n">
         <v>16</v>
@@ -4629,7 +4696,7 @@
         <v>30</v>
       </c>
       <c r="AY23" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ23" t="n">
         <v>20</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-23-2014-15</t>
+          <t>2015-02-23</t>
         </is>
       </c>
     </row>
@@ -4670,61 +4737,61 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E24" t="n">
         <v>12</v>
       </c>
       <c r="F24" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G24" t="n">
-        <v>0.214</v>
+        <v>0.218</v>
       </c>
       <c r="H24" t="n">
         <v>48.2</v>
       </c>
       <c r="I24" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="J24" t="n">
         <v>80.40000000000001</v>
       </c>
       <c r="K24" t="n">
-        <v>0.412</v>
+        <v>0.411</v>
       </c>
       <c r="L24" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="M24" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="N24" t="n">
-        <v>0.314</v>
+        <v>0.312</v>
       </c>
       <c r="O24" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="P24" t="n">
-        <v>24.2</v>
+        <v>24.1</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.681</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="R24" t="n">
         <v>11.4</v>
       </c>
       <c r="S24" t="n">
-        <v>30.7</v>
+        <v>30.8</v>
       </c>
       <c r="T24" t="n">
-        <v>42.1</v>
+        <v>42.3</v>
       </c>
       <c r="U24" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="V24" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="W24" t="n">
         <v>9.800000000000001</v>
@@ -4736,19 +4803,19 @@
         <v>5.3</v>
       </c>
       <c r="Z24" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AA24" t="n">
         <v>20.4</v>
       </c>
       <c r="AB24" t="n">
-        <v>90.40000000000001</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="AC24" t="n">
         <v>-10.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AE24" t="n">
         <v>28</v>
@@ -4760,7 +4827,7 @@
         <v>29</v>
       </c>
       <c r="AH24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI24" t="n">
         <v>30</v>
@@ -4778,13 +4845,13 @@
         <v>11</v>
       </c>
       <c r="AN24" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ24" t="n">
         <v>30</v>
@@ -4796,7 +4863,7 @@
         <v>27</v>
       </c>
       <c r="AT24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AU24" t="n">
         <v>27</v>
@@ -4805,19 +4872,19 @@
         <v>30</v>
       </c>
       <c r="AW24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY24" t="n">
         <v>22</v>
       </c>
       <c r="AZ24" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BA24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-23-2014-15</t>
+          <t>2015-02-23</t>
         </is>
       </c>
     </row>
@@ -4852,25 +4919,25 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E25" t="n">
         <v>29</v>
       </c>
       <c r="F25" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G25" t="n">
-        <v>0.509</v>
+        <v>0.518</v>
       </c>
       <c r="H25" t="n">
         <v>48.5</v>
       </c>
       <c r="I25" t="n">
-        <v>40</v>
+        <v>39.9</v>
       </c>
       <c r="J25" t="n">
-        <v>86.59999999999999</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="K25" t="n">
         <v>0.462</v>
@@ -4879,16 +4946,16 @@
         <v>9.5</v>
       </c>
       <c r="M25" t="n">
-        <v>26.6</v>
+        <v>26.5</v>
       </c>
       <c r="N25" t="n">
-        <v>0.359</v>
+        <v>0.36</v>
       </c>
       <c r="O25" t="n">
         <v>16.6</v>
       </c>
       <c r="P25" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="Q25" t="n">
         <v>0.78</v>
@@ -4897,10 +4964,10 @@
         <v>10.8</v>
       </c>
       <c r="S25" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="T25" t="n">
-        <v>42.6</v>
+        <v>42.5</v>
       </c>
       <c r="U25" t="n">
         <v>20.8</v>
@@ -4915,34 +4982,34 @@
         <v>4.9</v>
       </c>
       <c r="Y25" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Z25" t="n">
         <v>22.1</v>
       </c>
       <c r="AA25" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AB25" t="n">
-        <v>106.1</v>
+        <v>106</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE25" t="n">
         <v>15</v>
       </c>
       <c r="AF25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI25" t="n">
         <v>2</v>
@@ -4960,10 +5027,10 @@
         <v>5</v>
       </c>
       <c r="AN25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO25" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AP25" t="n">
         <v>25</v>
@@ -4972,19 +5039,19 @@
         <v>4</v>
       </c>
       <c r="AR25" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AS25" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AT25" t="n">
         <v>20</v>
       </c>
       <c r="AU25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW25" t="n">
         <v>5</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-23-2014-15</t>
+          <t>2015-02-23</t>
         </is>
       </c>
     </row>
@@ -5112,16 +5179,16 @@
         <v>4.7</v>
       </c>
       <c r="AD26" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AE26" t="n">
         <v>8</v>
       </c>
       <c r="AF26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH26" t="n">
         <v>9</v>
@@ -5142,7 +5209,7 @@
         <v>2</v>
       </c>
       <c r="AN26" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AO26" t="n">
         <v>27</v>
@@ -5154,13 +5221,13 @@
         <v>1</v>
       </c>
       <c r="AR26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS26" t="n">
         <v>1</v>
       </c>
       <c r="AT26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU26" t="n">
         <v>9</v>
@@ -5169,7 +5236,7 @@
         <v>9</v>
       </c>
       <c r="AW26" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AX26" t="n">
         <v>9</v>
@@ -5184,7 +5251,7 @@
         <v>24</v>
       </c>
       <c r="BB26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC26" t="n">
         <v>6</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-23-2014-15</t>
+          <t>2015-02-23</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-4.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AE27" t="n">
         <v>25</v>
@@ -5306,7 +5373,7 @@
         <v>25</v>
       </c>
       <c r="AH27" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AI27" t="n">
         <v>25</v>
@@ -5315,7 +5382,7 @@
         <v>28</v>
       </c>
       <c r="AK27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL27" t="n">
         <v>29</v>
@@ -5324,7 +5391,7 @@
         <v>28</v>
       </c>
       <c r="AN27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO27" t="n">
         <v>1</v>
@@ -5336,7 +5403,7 @@
         <v>9</v>
       </c>
       <c r="AR27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS27" t="n">
         <v>5</v>
@@ -5357,16 +5424,16 @@
         <v>28</v>
       </c>
       <c r="AY27" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AZ27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA27" t="n">
         <v>1</v>
       </c>
       <c r="BB27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BC27" t="n">
         <v>25</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-23-2014-15</t>
+          <t>2015-02-23</t>
         </is>
       </c>
     </row>
@@ -5401,55 +5468,55 @@
         <v>55</v>
       </c>
       <c r="E28" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6</v>
+        <v>0.618</v>
       </c>
       <c r="H28" t="n">
         <v>48.8</v>
       </c>
       <c r="I28" t="n">
-        <v>37.9</v>
+        <v>38</v>
       </c>
       <c r="J28" t="n">
-        <v>83.5</v>
+        <v>83.3</v>
       </c>
       <c r="K28" t="n">
-        <v>0.454</v>
+        <v>0.456</v>
       </c>
       <c r="L28" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="M28" t="n">
-        <v>22.9</v>
+        <v>23.1</v>
       </c>
       <c r="N28" t="n">
-        <v>0.359</v>
+        <v>0.363</v>
       </c>
       <c r="O28" t="n">
         <v>16.5</v>
       </c>
       <c r="P28" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.764</v>
+        <v>0.768</v>
       </c>
       <c r="R28" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="S28" t="n">
         <v>33.7</v>
       </c>
       <c r="T28" t="n">
-        <v>43.8</v>
+        <v>43.7</v>
       </c>
       <c r="U28" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="V28" t="n">
         <v>14.3</v>
@@ -5458,7 +5525,7 @@
         <v>7.6</v>
       </c>
       <c r="X28" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Y28" t="n">
         <v>4.8</v>
@@ -5467,37 +5534,37 @@
         <v>19.3</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AB28" t="n">
-        <v>100.5</v>
+        <v>100.9</v>
       </c>
       <c r="AC28" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AE28" t="n">
         <v>11</v>
       </c>
       <c r="AF28" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG28" t="n">
         <v>10</v>
       </c>
-      <c r="AG28" t="n">
+      <c r="AH28" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK28" t="n">
         <v>11</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>14</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>12</v>
       </c>
       <c r="AL28" t="n">
         <v>11</v>
@@ -5506,31 +5573,31 @@
         <v>14</v>
       </c>
       <c r="AN28" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AO28" t="n">
         <v>20</v>
       </c>
       <c r="AP28" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ28" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AR28" t="n">
         <v>24</v>
       </c>
       <c r="AS28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU28" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW28" t="n">
         <v>15</v>
@@ -5545,7 +5612,7 @@
         <v>10</v>
       </c>
       <c r="BA28" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB28" t="n">
         <v>13</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-23-2014-15</t>
+          <t>2015-02-23</t>
         </is>
       </c>
     </row>
@@ -5580,22 +5647,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E29" t="n">
         <v>37</v>
       </c>
       <c r="F29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G29" t="n">
-        <v>0.661</v>
+        <v>0.673</v>
       </c>
       <c r="H29" t="n">
         <v>48.5</v>
       </c>
       <c r="I29" t="n">
-        <v>38.1</v>
+        <v>38.2</v>
       </c>
       <c r="J29" t="n">
         <v>84.09999999999999</v>
@@ -5604,40 +5671,40 @@
         <v>0.454</v>
       </c>
       <c r="L29" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="M29" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="N29" t="n">
-        <v>0.348</v>
+        <v>0.351</v>
       </c>
       <c r="O29" t="n">
         <v>19.8</v>
       </c>
       <c r="P29" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.781</v>
+        <v>0.783</v>
       </c>
       <c r="R29" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="S29" t="n">
-        <v>30.8</v>
+        <v>30.9</v>
       </c>
       <c r="T29" t="n">
         <v>42</v>
       </c>
       <c r="U29" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="V29" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="W29" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="X29" t="n">
         <v>4.6</v>
@@ -5646,40 +5713,40 @@
         <v>5.2</v>
       </c>
       <c r="Z29" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="AA29" t="n">
         <v>21.2</v>
       </c>
-      <c r="AA29" t="n">
-        <v>21.1</v>
-      </c>
       <c r="AB29" t="n">
-        <v>104.9</v>
+        <v>105.1</v>
       </c>
       <c r="AC29" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="AD29" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AE29" t="n">
         <v>5</v>
       </c>
       <c r="AF29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG29" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AH29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI29" t="n">
         <v>8</v>
       </c>
       <c r="AJ29" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK29" t="n">
         <v>13</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>14</v>
       </c>
       <c r="AL29" t="n">
         <v>9</v>
@@ -5688,31 +5755,31 @@
         <v>9</v>
       </c>
       <c r="AN29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO29" t="n">
         <v>3</v>
       </c>
       <c r="AP29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ29" t="n">
         <v>3</v>
       </c>
       <c r="AR29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS29" t="n">
         <v>26</v>
       </c>
       <c r="AT29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW29" t="n">
         <v>13</v>
@@ -5733,7 +5800,7 @@
         <v>5</v>
       </c>
       <c r="BC29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-23-2014-15</t>
+          <t>2015-02-23</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F30" t="n">
         <v>34</v>
       </c>
       <c r="G30" t="n">
-        <v>0.382</v>
+        <v>0.37</v>
       </c>
       <c r="H30" t="n">
         <v>48</v>
@@ -5780,19 +5847,19 @@
         <v>35.9</v>
       </c>
       <c r="J30" t="n">
-        <v>79.90000000000001</v>
+        <v>79.8</v>
       </c>
       <c r="K30" t="n">
-        <v>0.449</v>
+        <v>0.45</v>
       </c>
       <c r="L30" t="n">
         <v>7.3</v>
       </c>
       <c r="M30" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="N30" t="n">
-        <v>0.343</v>
+        <v>0.344</v>
       </c>
       <c r="O30" t="n">
         <v>16.6</v>
@@ -5801,25 +5868,25 @@
         <v>22.7</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.732</v>
+        <v>0.731</v>
       </c>
       <c r="R30" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="S30" t="n">
-        <v>31.3</v>
+        <v>31.2</v>
       </c>
       <c r="T30" t="n">
-        <v>43.1</v>
+        <v>43</v>
       </c>
       <c r="U30" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="V30" t="n">
         <v>15</v>
       </c>
       <c r="W30" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X30" t="n">
         <v>5.9</v>
@@ -5828,19 +5895,19 @@
         <v>4.9</v>
       </c>
       <c r="Z30" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA30" t="n">
         <v>19.1</v>
       </c>
-      <c r="AA30" t="n">
-        <v>19.2</v>
-      </c>
       <c r="AB30" t="n">
-        <v>95.59999999999999</v>
+        <v>95.7</v>
       </c>
       <c r="AC30" t="n">
-        <v>-1.9</v>
+        <v>-2.1</v>
       </c>
       <c r="AD30" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AE30" t="n">
         <v>22</v>
@@ -5861,7 +5928,7 @@
         <v>29</v>
       </c>
       <c r="AK30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL30" t="n">
         <v>17</v>
@@ -5873,7 +5940,7 @@
         <v>20</v>
       </c>
       <c r="AO30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP30" t="n">
         <v>16</v>
@@ -5885,28 +5952,28 @@
         <v>8</v>
       </c>
       <c r="AS30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT30" t="n">
         <v>17</v>
       </c>
       <c r="AU30" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AV30" t="n">
+        <v>24</v>
+      </c>
+      <c r="AW30" t="n">
         <v>23</v>
       </c>
-      <c r="AW30" t="n">
-        <v>22</v>
-      </c>
       <c r="AX30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA30" t="n">
         <v>25</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-23-2014-15</t>
+          <t>2015-02-23</t>
         </is>
       </c>
     </row>
@@ -6022,10 +6089,10 @@
         <v>1.3</v>
       </c>
       <c r="AD31" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF31" t="n">
         <v>12</v>
@@ -6034,7 +6101,7 @@
         <v>12</v>
       </c>
       <c r="AH31" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AI31" t="n">
         <v>6</v>
@@ -6055,16 +6122,16 @@
         <v>5</v>
       </c>
       <c r="AO31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR31" t="n">
         <v>20</v>
-      </c>
-      <c r="AR31" t="n">
-        <v>19</v>
       </c>
       <c r="AS31" t="n">
         <v>9</v>
@@ -6073,25 +6140,25 @@
         <v>9</v>
       </c>
       <c r="AU31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW31" t="n">
         <v>17</v>
       </c>
       <c r="AX31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY31" t="n">
         <v>7</v>
       </c>
       <c r="AZ31" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BA31" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB31" t="n">
         <v>19</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-23-2014-15</t>
+          <t>2015-02-23</t>
         </is>
       </c>
     </row>
